--- a/최종발표/12.테이블이름정의.xlsx
+++ b/최종발표/12.테이블이름정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC874CE-AFCB-4C3E-AAEA-588B55E5AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A3C40-1092-4979-9829-A443476D52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>엔티티타입명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,14 +344,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEJH 멀티플렉스에서 상영가능한 영화 일정에 대한 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEJH 머리플렉스에서 상영하거나 상영중인 영화 인기에 대한 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원 로그인 절차를 통해 본인인증만 완료한 사용자 정보</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -362,6 +354,114 @@
   <si>
     <t>관리자 로그인 절차를 통해 DEJH 멀티플렉스를 운영하는 사용자 정보</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH 멀티플렉스에서 상영가능한 영화 상영시작일 및 종료일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH 머리플렉스에서 상영하거나 상영중인 영화 예매율 및 예매순위</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 정보 조회에 사용됨
+영화별 시청등급을 통해 예매 가능 여부 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 상영 시작 및 종료 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영중인 영화 중 특정 영화의 예매율 및 순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 영화에 속한 배우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기정된 도메인으로 사용자의 입력값과 
+대조 후 본인 인증 여부 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별 아이디를 통해 회원, 비회원 ,관리자 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의로 생성된 임시아이디와 비밀번호 등을 포함
+비회원으로 결제한 사용자의 결제내역 조회 및 취소를 위해 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입한 사용자의 정보
+회원별 포인트 정보 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 선택한 좋아하는 장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기정된 도메인으로 DEJH의 전반적인 엔티티들을 추가, 삭제 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반, 3D, SOUNDX 등 가격이 상이한 상영 방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반, 청소년, 경로, 우대 등 관객 방식과 할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식 및 수, 상영일정에 따른 선택 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드, 무통장입금, 인터넷 결제의 슈퍼타입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEJH가 제공하는 은행과 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제자가 사용할 신용카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정한 예매와 자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관에서 상영가능한 일자와 시각, 영화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정별 관객이 예매할 수 있는 좌석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 결제를 위한 QR코드 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매와 결제방식 및 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 튜플이 생성되면 결제내역 정보에도 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트의 적립, 소모, 반납, 환불여부와 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트의 사용 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -733,20 +833,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.58203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="20.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.09765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,18 +858,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,10 +880,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="35" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -787,10 +894,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -798,21 +908,27 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -820,10 +936,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -831,10 +950,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -842,10 +964,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -853,10 +978,13 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -864,10 +992,13 @@
         <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -877,8 +1008,11 @@
       <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -888,8 +1022,11 @@
       <c r="C13" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -897,10 +1034,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -910,8 +1050,11 @@
       <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -919,10 +1062,13 @@
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -930,10 +1076,13 @@
         <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -941,10 +1090,13 @@
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -952,10 +1104,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -963,10 +1118,13 @@
         <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -974,10 +1132,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -985,10 +1146,13 @@
         <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -996,10 +1160,13 @@
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1007,10 +1174,13 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1018,10 +1188,13 @@
         <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1029,10 +1202,13 @@
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1040,10 +1216,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1051,6 +1230,9 @@
         <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
     </row>
